--- a/InputData/bldgs/MSCdtRPbQL/Market Share Changes due to Rebate Prog by Qual Lvl.xlsx
+++ b/InputData/bldgs/MSCdtRPbQL/Market Share Changes due to Rebate Prog by Qual Lvl.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kieran\Dropbox\eps-1.4.1-canada-wipC\InputData\bldgs\MSCdtRPbQL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546EDCCB-8B4C-4079-AC6D-FFEE7629DE1B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="60" windowWidth="24600" windowHeight="13800"/>
+    <workbookView xWindow="225" yWindow="60" windowWidth="24600" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="MSCdtRPbQL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,9 +42,6 @@
     <t>Datta, S. and Filippini, M.</t>
   </si>
   <si>
-    <t>http://www.cepe.ethz.ch/publications/workingPapers/CEPE_WP86.pdf</t>
-  </si>
-  <si>
     <t>Page 12, first paragrah</t>
   </si>
   <si>
@@ -95,13 +103,16 @@
   </si>
   <si>
     <t>a good average across all appliance types.</t>
+  </si>
+  <si>
+    <t>https://www.ethz.ch/content/dam/ethz/special-interest/mtec/cepe/cepe-dam/documents/research/cepe-wp/CEPE_WP86.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,9 +129,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,24 +159,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -168,6 +183,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -216,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,9 +267,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,6 +319,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -459,22 +511,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -482,113 +536,111 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>15</v>
+      <c r="B24" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <extLst>
@@ -600,8 +652,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:C2"/>
@@ -617,15 +669,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <f>-C2</f>

--- a/InputData/bldgs/MSCdtRPbQL/Market Share Changes due to Rebate Prog by Qual Lvl.xlsx
+++ b/InputData/bldgs/MSCdtRPbQL/Market Share Changes due to Rebate Prog by Qual Lvl.xlsx
@@ -1,37 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kieran\Dropbox\eps-1.4.1-canada-wipC\InputData\bldgs\MSCdtRPbQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\bldgs\MSCdtRPbQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546EDCCB-8B4C-4079-AC6D-FFEE7629DE1B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A28372-CA4D-4F0B-96D9-E1953B8DA16E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="60" windowWidth="24600" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="1020" windowWidth="24765" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="MSCdtRPbQL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>MSCdtRPbQL Market Share Changes due to Rebate Program by Quality Level</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Rebate-Qualifying</t>
   </si>
   <si>
-    <t>Change in Perc Share</t>
-  </si>
-  <si>
     <t>Analysing the Impact of Energy Star Rebate Policies in the U.S.</t>
   </si>
   <si>
@@ -75,44 +72,20 @@
     <t>That is, this is a percentage of all sales, not a percentage of the sales of a particular quality level.</t>
   </si>
   <si>
-    <t>a $1 increase in utility rebates will lead to a 0.4% increase in the share of ENERGY STAR clothes washers. However the effect does not appear to be statistically significant for dishwashers while the effect for refrigerators is statistically significant only at the 10% level</t>
-  </si>
-  <si>
-    <t>Canada Adapatation</t>
-  </si>
-  <si>
-    <t>We use USA data for Canada because no Canada-specific study is available.</t>
-  </si>
-  <si>
-    <t>A more recent study has been done on the US market:</t>
-  </si>
-  <si>
-    <t>"Utility rebates for ENERGY STAR appliances: Are they effective?" By Datta &amp; Gulati in 2014</t>
-  </si>
-  <si>
-    <t>Found:</t>
-  </si>
-  <si>
-    <t>We choose not to update to this value (0.4) because they observed the effect only for</t>
-  </si>
-  <si>
-    <t>clothes washers, and this variable applies to all appliances.  The value from the older</t>
-  </si>
-  <si>
-    <t>study (0.074) is lower than the value for dishwashers in the new study and may be</t>
-  </si>
-  <si>
-    <t>a good average across all appliance types.</t>
-  </si>
-  <si>
-    <t>https://www.ethz.ch/content/dam/ethz/special-interest/mtec/cepe/cepe-dam/documents/research/cepe-wp/CEPE_WP86.pdf</t>
+    <t>Change in Perc Share (dimensionless)</t>
+  </si>
+  <si>
+    <t>This variable measures how a rebate program influences market shares of rebate-qualifying and non-qualifying components.</t>
+  </si>
+  <si>
+    <t>https://ethz.ch/content/dam/ethz/special-interest/mtec/cepe/cepe-dam/documents/research/cepe-wp/CEPE_WP86.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,14 +102,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -159,23 +127,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -512,23 +481,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -536,118 +503,67 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -658,9 +574,11 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
@@ -675,9 +593,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B2">
         <f>-C2</f>
@@ -689,10 +607,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>